--- a/interface/OilSite2.0/OilOrder/订单类型细分.xlsx
+++ b/interface/OilSite2.0/OilOrder/订单类型细分.xlsx
@@ -86,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,46 +107,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,7 +140,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,16 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,10 +190,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,17 +205,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +266,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,181 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,26 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -609,17 +589,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +613,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -655,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,133 +667,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="B2:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1630,14 +1630,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="19:25">
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
+    <row r="7" spans="7:25">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
     </row>
     <row r="8" spans="19:24">
       <c r="S8" t="s">
